--- a/serve/GDP.xlsx
+++ b/serve/GDP.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12855"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="1182">
   <si>
     <t>2019年</t>
   </si>
@@ -222,7 +222,7 @@
     <t xml:space="preserve">18.71万亿 </t>
   </si>
   <si>
-    <t>美洲</t>
+    <t>17.94万亿</t>
   </si>
   <si>
     <t xml:space="preserve">17.53万亿 </t>
@@ -3569,10 +3569,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -3599,61 +3599,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3675,9 +3628,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3705,22 +3705,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3734,9 +3719,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3769,7 +3769,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3781,25 +3859,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3811,43 +3907,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3859,73 +3937,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3937,19 +3949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4000,17 +4000,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4030,46 +4039,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4088,6 +4068,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4096,10 +4096,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4108,16 +4108,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4126,115 +4126,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4617,9 +4617,9 @@
   <dimension ref="A1:XAF24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CX1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5338,10 +5338,10 @@
         <v>67</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.242293</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>63</v>
